--- a/MEng_TaskB/Adult/classification_model_results.xlsx
+++ b/MEng_TaskB/Adult/classification_model_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isabel/SUN/03_DataScience/00_PostBlock/PBA3_19May/ds-group-42-pba-3/MEng_TaskB/Adult/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18282275-6291-304C-B0FD-273DA7BC0702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA19AE6-CBE7-164D-A525-2F15055C3810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="680" yWindow="1760" windowWidth="25660" windowHeight="10580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,6 +74,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -420,8 +421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -452,162 +453,162 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>0.80663322755655642</v>
+        <v>0.81113727095915655</v>
       </c>
       <c r="D2">
-        <v>0.79114315683906911</v>
+        <v>0.79614872458487684</v>
       </c>
       <c r="E2">
-        <v>0.80663322755655642</v>
+        <v>0.81113727095915655</v>
       </c>
       <c r="F2">
-        <v>0.79250085765419731</v>
+        <v>0.78879480622315157</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
-        <v>0.70907974204115054</v>
+        <v>0.76998669259903774</v>
       </c>
       <c r="D3">
-        <v>0.74608020309512013</v>
+        <v>0.77376309992929382</v>
       </c>
       <c r="E3">
-        <v>0.70907974204115054</v>
+        <v>0.76998669259903774</v>
       </c>
       <c r="F3">
-        <v>0.72264749886069268</v>
+        <v>0.77177381193877159</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4">
-        <v>0.56658818712253045</v>
+        <v>0.80663322755655642</v>
       </c>
       <c r="D4">
-        <v>0.75494946409264829</v>
+        <v>0.79114315683906911</v>
       </c>
       <c r="E4">
-        <v>0.56658818712253045</v>
+        <v>0.80663322755655642</v>
       </c>
       <c r="F4">
-        <v>0.59484576263802624</v>
+        <v>0.79250085765419731</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5">
-        <v>0.54611526256525744</v>
+        <v>0.70907974204115054</v>
       </c>
       <c r="D5">
-        <v>0.72284536196831894</v>
+        <v>0.74608020309512013</v>
       </c>
       <c r="E5">
-        <v>0.54611526256525744</v>
+        <v>0.70907974204115054</v>
       </c>
       <c r="F5">
-        <v>0.57673703679745625</v>
+        <v>0.72264749886069268</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6">
-        <v>0.26164397584194898</v>
+        <v>0.56658818712253045</v>
       </c>
       <c r="D6">
-        <v>0.72185401505440516</v>
+        <v>0.75494946409264829</v>
       </c>
       <c r="E6">
-        <v>0.26164397584194898</v>
+        <v>0.56658818712253045</v>
       </c>
       <c r="F6">
-        <v>0.14568881689230639</v>
+        <v>0.59484576263802624</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7">
-        <v>0.39082812979834169</v>
+        <v>0.54611526256525744</v>
       </c>
       <c r="D7">
-        <v>0.68432286173780987</v>
+        <v>0.72284536196831894</v>
       </c>
       <c r="E7">
-        <v>0.39082812979834169</v>
+        <v>0.54611526256525744</v>
       </c>
       <c r="F7">
-        <v>0.39160898070338468</v>
+        <v>0.57673703679745625</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8">
-        <v>0.81113727095915655</v>
+        <v>0.26164397584194898</v>
       </c>
       <c r="D8">
-        <v>0.79614872458487684</v>
+        <v>0.72185401505440516</v>
       </c>
       <c r="E8">
-        <v>0.81113727095915655</v>
+        <v>0.26164397584194898</v>
       </c>
       <c r="F8">
-        <v>0.78879480622315157</v>
+        <v>0.14568881689230639</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9">
-        <v>0.76998669259903774</v>
+        <v>0.39082812979834169</v>
       </c>
       <c r="D9">
-        <v>0.77376309992929382</v>
+        <v>0.68432286173780987</v>
       </c>
       <c r="E9">
-        <v>0.76998669259903774</v>
+        <v>0.39082812979834169</v>
       </c>
       <c r="F9">
-        <v>0.77177381193877159</v>
+        <v>0.39160898070338468</v>
       </c>
     </row>
   </sheetData>

--- a/MEng_TaskB/Adult/classification_model_results.xlsx
+++ b/MEng_TaskB/Adult/classification_model_results.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isabel/SUN/03_DataScience/00_PostBlock/PBA3_19May/ds-group-42-pba-3/MEng_TaskB/Adult/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dsvcorp-my.sharepoint.com/personal/difedile_rasenyalo_dsv_com/Documents/Stellenbosch/Post block Assignment3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA19AE6-CBE7-164D-A525-2F15055C3810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{12C3ADB2-E48F-4ECD-84FC-45CBD5F0D1A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="1760" windowWidth="25660" windowHeight="10580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="15">
   <si>
     <t>dataset_name</t>
   </si>
@@ -56,13 +57,25 @@
   </si>
   <si>
     <t>train_data_control</t>
+  </si>
+  <si>
+    <t>Mean_imputed_10</t>
+  </si>
+  <si>
+    <t>Mean_imputed_40</t>
+  </si>
+  <si>
+    <t>Mean_imputed_70</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,7 +87,13 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -109,16 +128,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -421,17 +443,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.90625" customWidth="1"/>
+    <col min="2" max="2" width="29.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,167 +473,369 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>0.81113727095915655</v>
+        <v>0.80663322755655642</v>
       </c>
       <c r="D2">
-        <v>0.79614872458487684</v>
+        <v>0.79114315683906911</v>
       </c>
       <c r="E2">
-        <v>0.81113727095915655</v>
+        <v>0.80663322755655642</v>
       </c>
       <c r="F2">
-        <v>0.78879480622315157</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.79250085765419731</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
-        <v>0.76998669259903774</v>
+        <v>0.70907974204115054</v>
       </c>
       <c r="D3">
-        <v>0.77376309992929382</v>
+        <v>0.74608020309512013</v>
       </c>
       <c r="E3">
-        <v>0.76998669259903774</v>
+        <v>0.70907974204115054</v>
       </c>
       <c r="F3">
-        <v>0.77177381193877159</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.72264749886069268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4">
-        <v>0.80663322755655642</v>
+        <v>0.56658818712253045</v>
       </c>
       <c r="D4">
-        <v>0.79114315683906911</v>
+        <v>0.75494946409264829</v>
       </c>
       <c r="E4">
-        <v>0.80663322755655642</v>
+        <v>0.56658818712253045</v>
       </c>
       <c r="F4">
-        <v>0.79250085765419731</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.59484576263802624</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5">
-        <v>0.70907974204115054</v>
+        <v>0.54611526256525744</v>
       </c>
       <c r="D5">
-        <v>0.74608020309512013</v>
+        <v>0.72284536196831894</v>
       </c>
       <c r="E5">
-        <v>0.70907974204115054</v>
+        <v>0.54611526256525744</v>
       </c>
       <c r="F5">
-        <v>0.72264749886069268</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.57673703679745625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6">
-        <v>0.56658818712253045</v>
+        <v>0.26164397584194898</v>
       </c>
       <c r="D6">
-        <v>0.75494946409264829</v>
+        <v>0.72185401505440516</v>
       </c>
       <c r="E6">
-        <v>0.56658818712253045</v>
+        <v>0.26164397584194898</v>
       </c>
       <c r="F6">
-        <v>0.59484576263802624</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.14568881689230639</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7">
-        <v>0.54611526256525744</v>
+        <v>0.39082812979834169</v>
       </c>
       <c r="D7">
-        <v>0.72284536196831894</v>
+        <v>0.68432286173780987</v>
       </c>
       <c r="E7">
-        <v>0.54611526256525744</v>
+        <v>0.39082812979834169</v>
       </c>
       <c r="F7">
-        <v>0.57673703679745625</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.39160898070338468</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8">
-        <v>0.26164397584194898</v>
+        <v>0.81113727095915655</v>
       </c>
       <c r="D8">
-        <v>0.72185401505440516</v>
+        <v>0.79614872458487684</v>
       </c>
       <c r="E8">
-        <v>0.26164397584194898</v>
+        <v>0.81113727095915655</v>
       </c>
       <c r="F8">
-        <v>0.14568881689230639</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.78879480622315157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9">
-        <v>0.39082812979834169</v>
+        <v>0.76998669259903774</v>
       </c>
       <c r="D9">
-        <v>0.68432286173780987</v>
+        <v>0.77376309992929382</v>
       </c>
       <c r="E9">
-        <v>0.39082812979834169</v>
+        <v>0.76998669259903774</v>
       </c>
       <c r="F9">
-        <v>0.39160898070338468</v>
+        <v>0.77177381193877159</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873A832D-50CF-4797-8BFF-9B72981FDB6F}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.81640625" customWidth="1"/>
+    <col min="2" max="2" width="26.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>0.76329999999999998</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="E2">
+        <v>0.76</v>
+      </c>
+      <c r="F2">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>0.76139999999999997</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="E3">
+        <v>0.76</v>
+      </c>
+      <c r="F3">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>0.76329999999999998</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="E4">
+        <v>0.76</v>
+      </c>
+      <c r="F4">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>0.74590000000000001</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="E5">
+        <v>0.75</v>
+      </c>
+      <c r="F5">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>0.7681</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="E6">
+        <v>0.77</v>
+      </c>
+      <c r="F6">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>0.74109999999999998</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="E7">
+        <v>0.74</v>
+      </c>
+      <c r="F7">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>0.76249999999999996</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="E8">
+        <v>0.76</v>
+      </c>
+      <c r="F8">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>0.76759999999999995</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="E9">
+        <v>0.77</v>
+      </c>
+      <c r="F9">
+        <v>0.77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/MEng_TaskB/Adult/classification_model_results.xlsx
+++ b/MEng_TaskB/Adult/classification_model_results.xlsx
@@ -8,34 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isabel/SUN/03_DataScience/00_PostBlock/PBA3_19May/ds-group-42-pba-3/MEng_TaskB/Adult/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C15CD73-B257-364D-BBB7-0D57C871F778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A623C49E-E40C-2446-8AE8-E787BB273A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="k-NN" sheetId="1" r:id="rId1"/>
     <sheet name="Mean" sheetId="3" r:id="rId2"/>
     <sheet name="All" sheetId="4" r:id="rId3"/>
     <sheet name="Graphs" sheetId="5" r:id="rId4"/>
+    <sheet name="NewResults_kNN" sheetId="6" r:id="rId5"/>
+    <sheet name="NewResults_Mean" sheetId="7" r:id="rId6"/>
+    <sheet name="NewResults_Graphs" sheetId="10" r:id="rId7"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Graphs!$O$5:$O$8</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Graphs!$P$4</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Graphs!$P$5:$P$8</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Graphs!$Q$4</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Graphs!$Q$5:$Q$8</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Graphs!$O$5:$O$8</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Graphs!$P$4</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Graphs!$P$5:$P$8</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Graphs!$Q$4</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Graphs!$Q$5:$Q$8</definedName>
-  </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="23">
   <si>
     <t>dataset_name</t>
   </si>
@@ -96,6 +87,15 @@
   <si>
     <t>k-Nerest Neighbour</t>
   </si>
+  <si>
+    <t>mean_imputed_data_10</t>
+  </si>
+  <si>
+    <t>mean_imputed_data_40</t>
+  </si>
+  <si>
+    <t>mean_imputed_data_70</t>
+  </si>
 </sst>
 </file>
 
@@ -103,10 +103,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="0.0000"/>
-    <numFmt numFmtId="171" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +127,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -142,7 +156,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -165,27 +179,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -589,6 +628,3470 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Classification Tree</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NewResults_Graphs!$B$2:$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>accuracy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>NewResults_Graphs!$A$4:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>NewResults_Graphs!$B$4:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.81113727095915655</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8123656464325929</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78104207185996521</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76292353362677856</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C66E-F042-BBC7-422EA7B84BED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NewResults_Graphs!$C$2:$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>accuracy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>k-NN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>NewResults_Graphs!$A$4:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>NewResults_Graphs!$C$4:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.811137</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80663300000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56658799999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26164399999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C66E-F042-BBC7-422EA7B84BED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="397713664"/>
+        <c:axId val="397715392"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="397713664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="397715392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="397715392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="397713664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Classification Tree</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NewResults_Graphs!$D$2:$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>precision</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>NewResults_Graphs!$A$4:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>NewResults_Graphs!$D$4:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.79614872458487684</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.79999722580276178</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76835668036487392</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.77960770467541596</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0F8D-304D-9FE8-C7F4F9D64CB2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NewResults_Graphs!$E$2:$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>precision</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>k-NN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>NewResults_Graphs!$A$4:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>NewResults_Graphs!$E$4:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.796149</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.79114300000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75494899999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.721854</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0F8D-304D-9FE8-C7F4F9D64CB2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="397713664"/>
+        <c:axId val="397715392"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="397713664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="397715392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="397715392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="397713664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Classification Tree</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NewResults_Graphs!$F$2:$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>recall</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>NewResults_Graphs!$A$4:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>NewResults_Graphs!$F$4:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.81113727095915655</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8123656464325929</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78104207185996521</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76292353362677856</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0805-5048-BEC0-22187F530E18}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NewResults_Graphs!$G$2:$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>recall</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>k-NN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>NewResults_Graphs!$A$4:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>NewResults_Graphs!$G$4:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.811137</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80663300000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56658799999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26164399999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0805-5048-BEC0-22187F530E18}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="397713664"/>
+        <c:axId val="397715392"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="397713664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="397715392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="397715392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="397713664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Classification Tree</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NewResults_Graphs!$H$2:$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>f1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>NewResults_Graphs!$A$4:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>NewResults_Graphs!$H$4:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.78879480622315157</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78560311502942748</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71767430595285797</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.661535050357556</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6B11-2A49-8D93-99C8C310AC17}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NewResults_Graphs!$I$2:$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>f1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>k-NN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>NewResults_Graphs!$A$4:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>NewResults_Graphs!$I$4:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.78879500000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.79250100000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59484599999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14568900000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6B11-2A49-8D93-99C8C310AC17}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="397713664"/>
+        <c:axId val="397715392"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="397713664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="397715392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="397715392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="397713664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>k-Nerest Neighbour</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NewResults_Graphs!$B$26:$B$27</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>accuracy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>NewResults_Graphs!$A$28:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>NewResults_Graphs!$B$28:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.80745214453884695</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78513665677141975</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.77459310062442421</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.74961613266455118</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D3C7-2543-B8DD-1569908B0152}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NewResults_Graphs!$C$26:$C$27</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>accuracy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>k-NN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>NewResults_Graphs!$A$28:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>NewResults_Graphs!$C$28:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.807759</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78431799999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61203799999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31958199999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D3C7-2543-B8DD-1569908B0152}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="397904336"/>
+        <c:axId val="397906048"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="397904336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="397906048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="397906048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="397904336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>k-Nerest Neighbour</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NewResults_Graphs!$D$26:$D$27</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>precision</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>NewResults_Graphs!$A$28:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>NewResults_Graphs!$D$28:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.79710863181796932</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.76757293224924961</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74548450426465152</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.70772940744933188</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-69ED-F048-915E-118C1F1296D1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NewResults_Graphs!$E$26:$E$27</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>precision</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>k-NN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>NewResults_Graphs!$A$28:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>NewResults_Graphs!$E$28:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.79757900000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78302099999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75553599999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.69603499999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-69ED-F048-915E-118C1F1296D1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="397904336"/>
+        <c:axId val="397906048"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="397904336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="397906048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="397906048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="397904336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>k-Nerest Neighbour</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NewResults_Graphs!$F$26:$F$27</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>recall</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>NewResults_Graphs!$A$28:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>NewResults_Graphs!$F$28:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.80745214453884739</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78513665677141975</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.77459310062442421</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.74961613266455118</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-09AB-5243-A001-38D74F678550}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NewResults_Graphs!$G$26:$G$27</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>recall</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>k-NN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>NewResults_Graphs!$A$28:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>NewResults_Graphs!$G$28:$G$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.807759</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78431799999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61203799999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31958199999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-09AB-5243-A001-38D74F678550}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="397904336"/>
+        <c:axId val="397906048"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="397904336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="397906048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="397906048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="397904336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>k-Nerest Neighbour</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NewResults_Graphs!$H$26:$H$27</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>f1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>NewResults_Graphs!$A$28:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>NewResults_Graphs!$H$28:$H$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.80039686949754418</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77208995728365548</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74705270822564263</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71571575033308343</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3AE7-4148-ABBB-BEB1C3411702}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NewResults_Graphs!$I$26:$I$27</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>f1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>k-NN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>NewResults_Graphs!$A$28:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>NewResults_Graphs!$I$28:$I$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.800848</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78365399999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.64047299999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26821</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3AE7-4148-ABBB-BEB1C3411702}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="397904336"/>
+        <c:axId val="397906048"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="397904336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="397906048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="397906048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="397904336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4096,6 +7599,326 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4971,6 +8794,4134 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -9445,6 +17396,315 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAFDBFDC-156F-D943-9E69-086D9D427A1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65B2A526-0CE1-5440-8291-E8CFABC0EFB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BBC6EDB-9CA9-C045-AFF9-EF30104A8D08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63EA066E-1226-C34D-A4E8-A54931A4F9C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32D87025-5A16-8D48-BACB-B5774CA5A185}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E759B704-029A-A34A-8FA7-7B2D68F7DCEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3AB4B50-31EA-9F42-8A46-68A634C9C724}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2475ADE-06FC-6946-8662-737470CF865E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -10944,7 +19204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558A52F0-F563-274F-88A7-484AEBF0B646}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
@@ -11336,16 +19596,844 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A1:I1"/>
     <mergeCell ref="A25:I25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="F26:G26"/>
     <mergeCell ref="H26:I26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17666518-FFC8-B84B-8652-C40643D92493}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="13"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="13">
+        <v>0.80663300000000004</v>
+      </c>
+      <c r="D2" s="13">
+        <v>0.79114300000000004</v>
+      </c>
+      <c r="E2" s="13">
+        <v>0.80663300000000004</v>
+      </c>
+      <c r="F2" s="13">
+        <v>0.79250100000000001</v>
+      </c>
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="13">
+        <v>0.78431799999999996</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0.78302099999999997</v>
+      </c>
+      <c r="E3" s="13">
+        <v>0.78431799999999996</v>
+      </c>
+      <c r="F3" s="13">
+        <v>0.78365399999999996</v>
+      </c>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="13">
+        <v>0.56658799999999998</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0.75494899999999998</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0.56658799999999998</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0.59484599999999999</v>
+      </c>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0.61203799999999997</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0.75553599999999999</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0.61203799999999997</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0.64047299999999996</v>
+      </c>
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="13">
+        <v>0.26164399999999999</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0.721854</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0.26164399999999999</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0.14568900000000001</v>
+      </c>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="13">
+        <v>0.31958199999999998</v>
+      </c>
+      <c r="D7" s="13">
+        <v>0.69603499999999996</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0.31958199999999998</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0.26821</v>
+      </c>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="13">
+        <v>0.811137</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0.796149</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0.811137</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0.78879500000000002</v>
+      </c>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="13">
+        <v>0.807759</v>
+      </c>
+      <c r="D9" s="13">
+        <v>0.79757900000000004</v>
+      </c>
+      <c r="E9" s="13">
+        <v>0.807759</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0.800848</v>
+      </c>
+      <c r="G9" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E16E08C0-52C8-474A-A68E-1F35101ABB58}">
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>0.81113727095915655</v>
+      </c>
+      <c r="E2">
+        <v>0.79614872458487684</v>
+      </c>
+      <c r="G2">
+        <v>0.81113727095915655</v>
+      </c>
+      <c r="I2">
+        <v>0.78879480622315157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>0.8123656464325929</v>
+      </c>
+      <c r="E3">
+        <v>0.79999722580276178</v>
+      </c>
+      <c r="G3">
+        <v>0.8123656464325929</v>
+      </c>
+      <c r="I3">
+        <v>0.78560311502942748</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>0.78104207185996521</v>
+      </c>
+      <c r="E4">
+        <v>0.76835668036487392</v>
+      </c>
+      <c r="G4">
+        <v>0.78104207185996521</v>
+      </c>
+      <c r="I4">
+        <v>0.71767430595285797</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>0.76292353362677856</v>
+      </c>
+      <c r="E5">
+        <v>0.77960770467541596</v>
+      </c>
+      <c r="G5">
+        <v>0.76292353362677856</v>
+      </c>
+      <c r="I5">
+        <v>0.661535050357556</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>0.80745214453884739</v>
+      </c>
+      <c r="E9">
+        <v>0.79710863181796932</v>
+      </c>
+      <c r="G9">
+        <v>0.80745214453884739</v>
+      </c>
+      <c r="I9">
+        <v>0.80039686949754418</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>0.78513665677141975</v>
+      </c>
+      <c r="E10">
+        <v>0.76757293224924961</v>
+      </c>
+      <c r="G10">
+        <v>0.78513665677141975</v>
+      </c>
+      <c r="I10">
+        <v>0.77208995728365548</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>0.77459310062442421</v>
+      </c>
+      <c r="E11">
+        <v>0.74548450426465152</v>
+      </c>
+      <c r="G11">
+        <v>0.77459310062442421</v>
+      </c>
+      <c r="I11">
+        <v>0.74705270822564263</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>0.74961613266455118</v>
+      </c>
+      <c r="E12">
+        <v>0.70772940744933188</v>
+      </c>
+      <c r="G12">
+        <v>0.74961613266455118</v>
+      </c>
+      <c r="I12">
+        <v>0.71571575033308343</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5A1E637-F090-C645-953C-D41AEAA00516}">
+  <dimension ref="A1:Q31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q53" sqref="Q53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.83203125" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.1640625" customWidth="1"/>
+    <col min="10" max="10" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.33203125" customWidth="1"/>
+    <col min="12" max="12" width="5.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="15"/>
+      <c r="B2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="14"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="15">
+        <v>0</v>
+      </c>
+      <c r="B4" s="16">
+        <v>0.81113727095915655</v>
+      </c>
+      <c r="C4" s="16">
+        <v>0.811137</v>
+      </c>
+      <c r="D4" s="16">
+        <v>0.79614872458487684</v>
+      </c>
+      <c r="E4" s="16">
+        <v>0.796149</v>
+      </c>
+      <c r="F4" s="16">
+        <v>0.81113727095915655</v>
+      </c>
+      <c r="G4" s="16">
+        <v>0.811137</v>
+      </c>
+      <c r="H4" s="16">
+        <v>0.78879480622315157</v>
+      </c>
+      <c r="I4" s="16">
+        <v>0.78879500000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="B5" s="16">
+        <v>0.8123656464325929</v>
+      </c>
+      <c r="C5" s="16">
+        <v>0.80663300000000004</v>
+      </c>
+      <c r="D5" s="16">
+        <v>0.79999722580276178</v>
+      </c>
+      <c r="E5" s="16">
+        <v>0.79114300000000004</v>
+      </c>
+      <c r="F5" s="16">
+        <v>0.8123656464325929</v>
+      </c>
+      <c r="G5" s="16">
+        <v>0.80663300000000004</v>
+      </c>
+      <c r="H5" s="16">
+        <v>0.78560311502942748</v>
+      </c>
+      <c r="I5" s="16">
+        <v>0.79250100000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="B6" s="16">
+        <v>0.78104207185996521</v>
+      </c>
+      <c r="C6" s="16">
+        <v>0.56658799999999998</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0.76835668036487392</v>
+      </c>
+      <c r="E6" s="16">
+        <v>0.75494899999999998</v>
+      </c>
+      <c r="F6" s="16">
+        <v>0.78104207185996521</v>
+      </c>
+      <c r="G6" s="16">
+        <v>0.56658799999999998</v>
+      </c>
+      <c r="H6" s="16">
+        <v>0.71767430595285797</v>
+      </c>
+      <c r="I6" s="16">
+        <v>0.59484599999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="B7" s="16">
+        <v>0.76292353362677856</v>
+      </c>
+      <c r="C7" s="16">
+        <v>0.26164399999999999</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0.77960770467541596</v>
+      </c>
+      <c r="E7" s="16">
+        <v>0.721854</v>
+      </c>
+      <c r="F7" s="16">
+        <v>0.76292353362677856</v>
+      </c>
+      <c r="G7" s="16">
+        <v>0.26164399999999999</v>
+      </c>
+      <c r="H7" s="16">
+        <v>0.661535050357556</v>
+      </c>
+      <c r="I7" s="16">
+        <v>0.14568900000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G8" s="3"/>
+      <c r="I8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G9" s="3"/>
+      <c r="I9" s="5"/>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K11" s="5"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="15"/>
+      <c r="B26" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="14"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="15">
+        <v>0</v>
+      </c>
+      <c r="B28" s="16">
+        <v>0.80745214453884695</v>
+      </c>
+      <c r="C28" s="16">
+        <v>0.807759</v>
+      </c>
+      <c r="D28" s="16">
+        <v>0.79710863181796932</v>
+      </c>
+      <c r="E28" s="16">
+        <v>0.79757900000000004</v>
+      </c>
+      <c r="F28" s="16">
+        <v>0.80745214453884739</v>
+      </c>
+      <c r="G28" s="16">
+        <v>0.807759</v>
+      </c>
+      <c r="H28" s="16">
+        <v>0.80039686949754418</v>
+      </c>
+      <c r="I28" s="16">
+        <v>0.800848</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="B29" s="16">
+        <v>0.78513665677141975</v>
+      </c>
+      <c r="C29" s="16">
+        <v>0.78431799999999996</v>
+      </c>
+      <c r="D29" s="16">
+        <v>0.76757293224924961</v>
+      </c>
+      <c r="E29" s="16">
+        <v>0.78302099999999997</v>
+      </c>
+      <c r="F29" s="16">
+        <v>0.78513665677141975</v>
+      </c>
+      <c r="G29" s="16">
+        <v>0.78431799999999996</v>
+      </c>
+      <c r="H29" s="16">
+        <v>0.77208995728365548</v>
+      </c>
+      <c r="I29" s="16">
+        <v>0.78365399999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="B30" s="16">
+        <v>0.77459310062442421</v>
+      </c>
+      <c r="C30" s="16">
+        <v>0.61203799999999997</v>
+      </c>
+      <c r="D30" s="16">
+        <v>0.74548450426465152</v>
+      </c>
+      <c r="E30" s="16">
+        <v>0.75553599999999999</v>
+      </c>
+      <c r="F30" s="16">
+        <v>0.77459310062442421</v>
+      </c>
+      <c r="G30" s="16">
+        <v>0.61203799999999997</v>
+      </c>
+      <c r="H30" s="16">
+        <v>0.74705270822564263</v>
+      </c>
+      <c r="I30" s="16">
+        <v>0.64047299999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="B31" s="16">
+        <v>0.74961613266455118</v>
+      </c>
+      <c r="C31" s="16">
+        <v>0.31958199999999998</v>
+      </c>
+      <c r="D31" s="16">
+        <v>0.70772940744933188</v>
+      </c>
+      <c r="E31" s="16">
+        <v>0.69603499999999996</v>
+      </c>
+      <c r="F31" s="16">
+        <v>0.74961613266455118</v>
+      </c>
+      <c r="G31" s="16">
+        <v>0.31958199999999998</v>
+      </c>
+      <c r="H31" s="16">
+        <v>0.71571575033308343</v>
+      </c>
+      <c r="I31" s="16">
+        <v>0.26821</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="A1:I1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A25:I25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/MEng_TaskB/Adult/classification_model_results.xlsx
+++ b/MEng_TaskB/Adult/classification_model_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isabel/SUN/03_DataScience/00_PostBlock/PBA3_19May/ds-group-42-pba-3/MEng_TaskB/Adult/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A623C49E-E40C-2446-8AE8-E787BB273A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2D02CE-5D42-9446-BF52-F8CB55034D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="k-NN" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,36 @@
     <sheet name="NewResults_kNN" sheetId="6" r:id="rId5"/>
     <sheet name="NewResults_Mean" sheetId="7" r:id="rId6"/>
     <sheet name="NewResults_Graphs" sheetId="10" r:id="rId7"/>
+    <sheet name="NewResults_End)" sheetId="11" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'NewResults_End)'!$A$27:$A$29</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'NewResults_End)'!$B$26</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'NewResults_End)'!$B$27:$B$29</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'NewResults_End)'!$C$26</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'NewResults_End)'!$C$27:$C$29</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'NewResults_End)'!$D$26</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'NewResults_End)'!$D$27:$D$29</definedName>
+  </definedNames>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="24">
   <si>
     <t>dataset_name</t>
   </si>
@@ -96,6 +119,9 @@
   <si>
     <t>mean_imputed_data_70</t>
   </si>
+  <si>
+    <t>Control</t>
+  </si>
 </sst>
 </file>
 
@@ -106,7 +132,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +163,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF595959"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -197,7 +230,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -210,9 +243,6 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -225,6 +255,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -750,7 +794,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>NewResults_Graphs!$B$2:$B$3</c:f>
+              <c:f>NewResults_Graphs!$C$2:$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -797,7 +841,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>NewResults_Graphs!$B$4:$B$7</c:f>
+              <c:f>NewResults_Graphs!$C$4:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -828,7 +872,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>NewResults_Graphs!$C$2:$C$3</c:f>
+              <c:f>NewResults_Graphs!$D$2:$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -875,7 +919,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>NewResults_Graphs!$C$4:$C$7</c:f>
+              <c:f>NewResults_Graphs!$D$4:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1183,7 +1227,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>NewResults_Graphs!$D$2:$D$3</c:f>
+              <c:f>NewResults_Graphs!$F$2:$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1230,7 +1274,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>NewResults_Graphs!$D$4:$D$7</c:f>
+              <c:f>NewResults_Graphs!$F$4:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1261,7 +1305,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>NewResults_Graphs!$E$2:$E$3</c:f>
+              <c:f>NewResults_Graphs!$G$2:$G$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1308,7 +1352,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>NewResults_Graphs!$E$4:$E$7</c:f>
+              <c:f>NewResults_Graphs!$G$4:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1616,7 +1660,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>NewResults_Graphs!$F$2:$F$3</c:f>
+              <c:f>NewResults_Graphs!$H$2:$H$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1663,7 +1707,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>NewResults_Graphs!$F$4:$F$7</c:f>
+              <c:f>NewResults_Graphs!$H$4:$H$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1694,7 +1738,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>NewResults_Graphs!$G$2:$G$3</c:f>
+              <c:f>NewResults_Graphs!$I$2:$I$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1741,7 +1785,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>NewResults_Graphs!$G$4:$G$7</c:f>
+              <c:f>NewResults_Graphs!$I$4:$I$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2041,15 +2085,16 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>NewResults_Graphs!$H$2:$H$3</c:f>
+              <c:f>NewResults_Graphs!$J$2:$J$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2062,17 +2107,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>NewResults_Graphs!$A$4:$A$7</c:f>
@@ -2096,7 +2139,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>NewResults_Graphs!$H$4:$H$7</c:f>
+              <c:f>NewResults_Graphs!$J$4:$J$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2115,7 +2158,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6B11-2A49-8D93-99C8C310AC17}"/>
@@ -2127,7 +2169,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>NewResults_Graphs!$I$2:$I$3</c:f>
+              <c:f>NewResults_Graphs!$K$2:$K$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2140,17 +2182,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>NewResults_Graphs!$A$4:$A$7</c:f>
@@ -2174,7 +2214,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>NewResults_Graphs!$I$4:$I$7</c:f>
+              <c:f>NewResults_Graphs!$K$4:$K$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2193,7 +2233,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6B11-2A49-8D93-99C8C310AC17}"/>
@@ -2208,10 +2247,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="397713664"/>
         <c:axId val="397715392"/>
-      </c:lineChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="397713664"/>
         <c:scaling>
@@ -2482,7 +2521,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>NewResults_Graphs!$B$26:$B$27</c:f>
+              <c:f>NewResults_Graphs!$C$26:$C$27</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2529,7 +2568,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>NewResults_Graphs!$B$28:$B$31</c:f>
+              <c:f>NewResults_Graphs!$C$28:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2560,7 +2599,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>NewResults_Graphs!$C$26:$C$27</c:f>
+              <c:f>NewResults_Graphs!$D$26:$D$27</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2607,7 +2646,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>NewResults_Graphs!$C$28:$C$31</c:f>
+              <c:f>NewResults_Graphs!$D$28:$D$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2915,7 +2954,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>NewResults_Graphs!$D$26:$D$27</c:f>
+              <c:f>NewResults_Graphs!$F$26:$F$27</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2962,7 +3001,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>NewResults_Graphs!$D$28:$D$31</c:f>
+              <c:f>NewResults_Graphs!$F$28:$F$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2993,7 +3032,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>NewResults_Graphs!$E$26:$E$27</c:f>
+              <c:f>NewResults_Graphs!$G$26:$G$27</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -3040,7 +3079,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>NewResults_Graphs!$E$28:$E$31</c:f>
+              <c:f>NewResults_Graphs!$G$28:$G$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3348,7 +3387,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>NewResults_Graphs!$F$26:$F$27</c:f>
+              <c:f>NewResults_Graphs!$H$26:$H$27</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -3395,7 +3434,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>NewResults_Graphs!$F$28:$F$31</c:f>
+              <c:f>NewResults_Graphs!$H$28:$H$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3426,7 +3465,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>NewResults_Graphs!$G$26:$G$27</c:f>
+              <c:f>NewResults_Graphs!$I$26:$I$27</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -3473,7 +3512,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>NewResults_Graphs!$G$28:$G$31</c:f>
+              <c:f>NewResults_Graphs!$I$28:$I$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3773,15 +3812,16 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>NewResults_Graphs!$H$26:$H$27</c:f>
+              <c:f>NewResults_Graphs!$J$26:$J$27</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -3794,17 +3834,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>NewResults_Graphs!$A$28:$A$31</c:f>
@@ -3828,7 +3866,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>NewResults_Graphs!$H$28:$H$31</c:f>
+              <c:f>NewResults_Graphs!$J$28:$J$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3847,7 +3885,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3AE7-4148-ABBB-BEB1C3411702}"/>
@@ -3859,7 +3896,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>NewResults_Graphs!$I$26:$I$27</c:f>
+              <c:f>NewResults_Graphs!$K$26:$K$27</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -3872,17 +3909,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>NewResults_Graphs!$A$28:$A$31</c:f>
@@ -3906,7 +3941,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>NewResults_Graphs!$I$28:$I$31</c:f>
+              <c:f>NewResults_Graphs!$K$28:$K$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3925,7 +3960,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3AE7-4148-ABBB-BEB1C3411702}"/>
@@ -3940,10 +3974,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="397904336"/>
         <c:axId val="397906048"/>
-      </c:lineChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="397904336"/>
         <c:scaling>
@@ -4134,6 +4168,1079 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Classification Tree</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NewResults_Graphs!$B$2:$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="1">
+                  <c:v>Control</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>NewResults_Graphs!$A$5:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>NewResults_Graphs!$B$5:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.81113727095915655</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.81113727095915655</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81113727095915655</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-34C9-D446-B98A-357BB8F8C916}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NewResults_Graphs!$C$2:$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>accuracy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>NewResults_Graphs!$A$5:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>NewResults_Graphs!$C$5:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.8123656464325929</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78104207185996521</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76292353362677856</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-34C9-D446-B98A-357BB8F8C916}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NewResults_Graphs!$D$2:$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>accuracy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>k-NN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>NewResults_Graphs!$A$5:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>NewResults_Graphs!$D$5:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.80663300000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56658799999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26164399999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-34C9-D446-B98A-357BB8F8C916}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="397713664"/>
+        <c:axId val="397715392"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="397713664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="397715392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="397715392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="397713664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Classification Tree: Accuracy</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'NewResults_End)'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Control</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'NewResults_End)'!$A$4:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'NewResults_End)'!$B$4:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.81113727095915655</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.81113727095915655</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81113727095915655</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-36B4-D141-8422-E9F1FFC3697B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'NewResults_End)'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'NewResults_End)'!$A$4:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'NewResults_End)'!$C$4:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.8123656464325929</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78104207185996521</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76292353362677856</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-36B4-D141-8422-E9F1FFC3697B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'NewResults_End)'!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>k-NN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'NewResults_End)'!$A$4:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'NewResults_End)'!$D$4:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.80663300000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56658799999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26164399999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-36B4-D141-8422-E9F1FFC3697B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="397713664"/>
+        <c:axId val="397715392"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="397713664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Proportion of Missing Values Imputed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="397715392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="397715392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Calculated</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Accuracy</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="397713664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -4494,6 +5601,1779 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>k-Nerest Neighbour: Accuracy</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'NewResults_End)'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Control</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'NewResults_End)'!$A$27:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'NewResults_End)'!$B$27:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.80745214453884695</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80745214453884695</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80745214453884695</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A386-D349-A3D2-A6BEC969BF60}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'NewResults_End)'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'NewResults_End)'!$A$27:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'NewResults_End)'!$C$27:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.78513665677141975</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77459310062442421</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74961613266455118</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A386-D349-A3D2-A6BEC969BF60}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'NewResults_End)'!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>k-NN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'NewResults_End)'!$A$27:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'NewResults_End)'!$D$27:$D$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.78431799999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61203799999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31958199999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A386-D349-A3D2-A6BEC969BF60}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="397713664"/>
+        <c:axId val="397715392"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="397713664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Proportion of Missing Values Imputed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="397715392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="397715392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Calculated</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Accuracy</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="397713664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Classification Tree: F1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'NewResults_End)'!$N$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Control</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'NewResults_End)'!$A$4:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'NewResults_End)'!$N$4:$N$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.78879480622315157</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78879480622315157</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78879480622315157</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5262-E64A-A4FB-A41485FD3663}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'NewResults_End)'!$O$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'NewResults_End)'!$A$4:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'NewResults_End)'!$O$4:$O$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.78560311502942748</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71767430595285797</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.661535050357556</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5262-E64A-A4FB-A41485FD3663}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'NewResults_End)'!$P$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>k-NN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'NewResults_End)'!$A$4:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'NewResults_End)'!$P$4:$P$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.79250100000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.59484599999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14568900000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5262-E64A-A4FB-A41485FD3663}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="397713664"/>
+        <c:axId val="397715392"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="397713664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Proportion of Missing Values Imputed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="397715392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="397715392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Calculated</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Accuracy</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="397713664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>k-Nerest Neighbour: F1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'NewResults_End)'!$N$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Control</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'NewResults_End)'!$A$27:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'NewResults_End)'!$N$27:$N$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.80039686949754418</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80039686949754418</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80039686949754418</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-219F-EF4B-BBFA-EEE09A68276E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'NewResults_End)'!$O$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'NewResults_End)'!$A$27:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'NewResults_End)'!$O$27:$O$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.77208995728365548</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.74705270822564263</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71571575033308343</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-219F-EF4B-BBFA-EEE09A68276E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'NewResults_End)'!$P$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>k-NN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'NewResults_End)'!$A$27:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'NewResults_End)'!$P$27:$P$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.78365399999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.64047299999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26821</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-219F-EF4B-BBFA-EEE09A68276E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="397713664"/>
+        <c:axId val="397715392"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="397713664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Proportion of Missing Values Imputed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="397715392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="397715392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Calculated</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Accuracy</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="397713664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7958,7 +10838,207 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors20.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors21.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors22.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -12922,7 +16002,2587 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style20.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style21.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style22.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -17406,7 +23066,7 @@
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
@@ -17438,13 +23098,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
@@ -17476,13 +23136,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
@@ -17514,13 +23174,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -17558,7 +23218,7 @@
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
@@ -17590,13 +23250,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
@@ -17628,13 +23288,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>812800</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
@@ -17666,13 +23326,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
@@ -17702,48 +23362,243 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{273FD313-A8C8-514A-A6D6-1175341449ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E81883F6-B3EB-2845-A236-78342BABAB3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44B21085-D9AB-944D-8F3B-444797770AAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2432217C-BBC5-494C-A302-4462FB032F16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Chart 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A721C31-4FA1-CB44-AA21-81B2CDDA8B33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="GeneralTheme">
+    <a:clrScheme name="Blue Warm">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="4A5356"/>
+        <a:srgbClr val="242852"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E3CE"/>
+        <a:srgbClr val="ACCBF9"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="F6A21D"/>
+        <a:srgbClr val="4A66AC"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="9BAFB5"/>
+        <a:srgbClr val="629DD1"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="C96731"/>
+        <a:srgbClr val="297FD5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="9CA383"/>
+        <a:srgbClr val="7F8FA9"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="87795D"/>
+        <a:srgbClr val="5AA2AE"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="A0988C"/>
+        <a:srgbClr val="9D90A0"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="00B0F0"/>
+        <a:srgbClr val="9454C3"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="738F97"/>
+        <a:srgbClr val="3EBBF0"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -19225,35 +25080,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10" t="s">
+      <c r="G2" s="16"/>
+      <c r="H2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="10"/>
+      <c r="I2" s="16"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
@@ -19422,35 +25277,35 @@
       <c r="K11" s="5"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10" t="s">
+      <c r="C26" s="16"/>
+      <c r="D26" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10" t="s">
+      <c r="E26" s="16"/>
+      <c r="F26" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10" t="s">
+      <c r="G26" s="16"/>
+      <c r="H26" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="I26" s="10"/>
+      <c r="I26" s="16"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
@@ -19628,193 +25483,193 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="12">
         <v>0.80663300000000004</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="12">
         <v>0.79114300000000004</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="12">
         <v>0.80663300000000004</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="12">
         <v>0.79250100000000001</v>
       </c>
-      <c r="G2" s="13"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="12">
         <v>0.78431799999999996</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="12">
         <v>0.78302099999999997</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="12">
         <v>0.78431799999999996</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="12">
         <v>0.78365399999999996</v>
       </c>
-      <c r="G3" s="13"/>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="12">
         <v>0.56658799999999998</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <v>0.75494899999999998</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <v>0.56658799999999998</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="12">
         <v>0.59484599999999999</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="12">
         <v>0.61203799999999997</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="12">
         <v>0.75553599999999999</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <v>0.61203799999999997</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="12">
         <v>0.64047299999999996</v>
       </c>
-      <c r="G5" s="13"/>
+      <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="12">
         <v>0.26164399999999999</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="12">
         <v>0.721854</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="12">
         <v>0.26164399999999999</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="12">
         <v>0.14568900000000001</v>
       </c>
-      <c r="G6" s="13"/>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="12">
         <v>0.31958199999999998</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="12">
         <v>0.69603499999999996</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="12">
         <v>0.31958199999999998</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="12">
         <v>0.26821</v>
       </c>
-      <c r="G7" s="13"/>
+      <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="12">
         <v>0.811137</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="12">
         <v>0.796149</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="12">
         <v>0.811137</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="12">
         <v>0.78879500000000002</v>
       </c>
-      <c r="G8" s="13"/>
+      <c r="G8" s="12"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="12">
         <v>0.807759</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="12">
         <v>0.79757900000000004</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="12">
         <v>0.807759</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="12">
         <v>0.800848</v>
       </c>
-      <c r="G9" s="13"/>
+      <c r="G9" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20032,408 +25887,951 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5A1E637-F090-C645-953C-D41AEAA00516}">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q53" sqref="Q53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.83203125" customWidth="1"/>
-    <col min="8" max="8" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.1640625" customWidth="1"/>
-    <col min="10" max="10" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.33203125" customWidth="1"/>
-    <col min="12" max="12" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.83203125" customWidth="1"/>
+    <col min="10" max="10" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.1640625" customWidth="1"/>
+    <col min="12" max="12" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.33203125" customWidth="1"/>
+    <col min="14" max="14" width="5.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
-      <c r="B2" s="14" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="17"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14" t="s">
+      <c r="G2" s="17"/>
+      <c r="H2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14" t="s">
+      <c r="I2" s="17"/>
+      <c r="J2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="14"/>
+      <c r="K2" s="17"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15" t="s">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="E3" s="14"/>
+      <c r="F3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="G3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="H3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="I3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="J3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="K3" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="15">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="14">
         <v>0</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="14"/>
+      <c r="C4" s="15">
         <v>0.81113727095915655</v>
       </c>
-      <c r="C4" s="16">
+      <c r="D4" s="15">
         <v>0.811137</v>
       </c>
-      <c r="D4" s="16">
+      <c r="E4" s="15"/>
+      <c r="F4" s="15">
         <v>0.79614872458487684</v>
       </c>
-      <c r="E4" s="16">
+      <c r="G4" s="15">
         <v>0.796149</v>
       </c>
-      <c r="F4" s="16">
+      <c r="H4" s="15">
         <v>0.81113727095915655</v>
       </c>
-      <c r="G4" s="16">
+      <c r="I4" s="15">
         <v>0.811137</v>
       </c>
-      <c r="H4" s="16">
+      <c r="J4" s="15">
         <v>0.78879480622315157</v>
       </c>
-      <c r="I4" s="16">
+      <c r="K4" s="15">
         <v>0.78879500000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="15">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="14">
         <v>0.1</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="15">
+        <v>0.81113727095915655</v>
+      </c>
+      <c r="C5" s="15">
         <v>0.8123656464325929</v>
       </c>
-      <c r="C5" s="16">
+      <c r="D5" s="15">
         <v>0.80663300000000004</v>
       </c>
-      <c r="D5" s="16">
+      <c r="F5" s="15">
         <v>0.79999722580276178</v>
       </c>
-      <c r="E5" s="16">
+      <c r="G5" s="15">
         <v>0.79114300000000004</v>
       </c>
-      <c r="F5" s="16">
+      <c r="H5" s="15">
         <v>0.8123656464325929</v>
       </c>
-      <c r="G5" s="16">
+      <c r="I5" s="15">
         <v>0.80663300000000004</v>
       </c>
-      <c r="H5" s="16">
+      <c r="J5" s="15">
         <v>0.78560311502942748</v>
       </c>
-      <c r="I5" s="16">
+      <c r="K5" s="15">
         <v>0.79250100000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="15">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="14">
         <v>0.4</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="15">
+        <v>0.81113727095915655</v>
+      </c>
+      <c r="C6" s="15">
         <v>0.78104207185996521</v>
       </c>
-      <c r="C6" s="16">
+      <c r="D6" s="15">
         <v>0.56658799999999998</v>
       </c>
-      <c r="D6" s="16">
+      <c r="F6" s="15">
         <v>0.76835668036487392</v>
       </c>
-      <c r="E6" s="16">
+      <c r="G6" s="15">
         <v>0.75494899999999998</v>
       </c>
-      <c r="F6" s="16">
+      <c r="H6" s="15">
         <v>0.78104207185996521</v>
       </c>
-      <c r="G6" s="16">
+      <c r="I6" s="15">
         <v>0.56658799999999998</v>
       </c>
-      <c r="H6" s="16">
+      <c r="J6" s="15">
         <v>0.71767430595285797</v>
       </c>
-      <c r="I6" s="16">
+      <c r="K6" s="15">
         <v>0.59484599999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="15">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="14">
         <v>0.7</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="15">
+        <v>0.81113727095915655</v>
+      </c>
+      <c r="C7" s="15">
         <v>0.76292353362677856</v>
       </c>
-      <c r="C7" s="16">
+      <c r="D7" s="15">
         <v>0.26164399999999999</v>
       </c>
-      <c r="D7" s="16">
+      <c r="F7" s="15">
         <v>0.77960770467541596</v>
       </c>
-      <c r="E7" s="16">
+      <c r="G7" s="15">
         <v>0.721854</v>
       </c>
-      <c r="F7" s="16">
+      <c r="H7" s="15">
         <v>0.76292353362677856</v>
       </c>
-      <c r="G7" s="16">
+      <c r="I7" s="15">
         <v>0.26164399999999999</v>
       </c>
-      <c r="H7" s="16">
+      <c r="J7" s="15">
         <v>0.661535050357556</v>
       </c>
-      <c r="I7" s="16">
+      <c r="K7" s="15">
         <v>0.14568900000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="G8" s="3"/>
-      <c r="I8" s="5"/>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="I8" s="3"/>
       <c r="K8" s="5"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
+      <c r="M8" s="5"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="G9" s="3"/>
-      <c r="I9" s="5"/>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="I9" s="3"/>
       <c r="K9" s="5"/>
+      <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="K10" s="5"/>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="K11" s="5"/>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="M11" s="5"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="14" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
-      <c r="B26" s="14" t="s">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="17"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14" t="s">
+      <c r="G26" s="17"/>
+      <c r="H26" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14" t="s">
+      <c r="I26" s="17"/>
+      <c r="J26" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="I26" s="14"/>
+      <c r="K26" s="17"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="D27" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="E27" s="14"/>
+      <c r="F27" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="G27" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="H27" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G27" s="15" t="s">
+      <c r="I27" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="15" t="s">
+      <c r="J27" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="15" t="s">
+      <c r="K27" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="15">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="14">
         <v>0</v>
       </c>
-      <c r="B28" s="16">
+      <c r="B28" s="14"/>
+      <c r="C28" s="15">
         <v>0.80745214453884695</v>
       </c>
-      <c r="C28" s="16">
+      <c r="D28" s="15">
         <v>0.807759</v>
       </c>
-      <c r="D28" s="16">
+      <c r="E28" s="15"/>
+      <c r="F28" s="15">
         <v>0.79710863181796932</v>
       </c>
-      <c r="E28" s="16">
+      <c r="G28" s="15">
         <v>0.79757900000000004</v>
       </c>
-      <c r="F28" s="16">
+      <c r="H28" s="15">
         <v>0.80745214453884739</v>
       </c>
-      <c r="G28" s="16">
+      <c r="I28" s="15">
         <v>0.807759</v>
       </c>
-      <c r="H28" s="16">
+      <c r="J28" s="15">
         <v>0.80039686949754418</v>
       </c>
-      <c r="I28" s="16">
+      <c r="K28" s="15">
         <v>0.800848</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="15">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="14">
         <v>0.1</v>
       </c>
-      <c r="B29" s="16">
+      <c r="B29" s="14"/>
+      <c r="C29" s="15">
         <v>0.78513665677141975</v>
       </c>
-      <c r="C29" s="16">
+      <c r="D29" s="15">
         <v>0.78431799999999996</v>
       </c>
-      <c r="D29" s="16">
+      <c r="E29" s="15"/>
+      <c r="F29" s="15">
         <v>0.76757293224924961</v>
       </c>
-      <c r="E29" s="16">
+      <c r="G29" s="15">
         <v>0.78302099999999997</v>
       </c>
-      <c r="F29" s="16">
+      <c r="H29" s="15">
         <v>0.78513665677141975</v>
       </c>
-      <c r="G29" s="16">
+      <c r="I29" s="15">
         <v>0.78431799999999996</v>
       </c>
-      <c r="H29" s="16">
+      <c r="J29" s="15">
         <v>0.77208995728365548</v>
       </c>
-      <c r="I29" s="16">
+      <c r="K29" s="15">
         <v>0.78365399999999996</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="15">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="14">
         <v>0.4</v>
       </c>
-      <c r="B30" s="16">
+      <c r="B30" s="14"/>
+      <c r="C30" s="15">
         <v>0.77459310062442421</v>
       </c>
-      <c r="C30" s="16">
+      <c r="D30" s="15">
         <v>0.61203799999999997</v>
       </c>
-      <c r="D30" s="16">
+      <c r="E30" s="15"/>
+      <c r="F30" s="15">
         <v>0.74548450426465152</v>
       </c>
-      <c r="E30" s="16">
+      <c r="G30" s="15">
         <v>0.75553599999999999</v>
       </c>
-      <c r="F30" s="16">
+      <c r="H30" s="15">
         <v>0.77459310062442421</v>
       </c>
-      <c r="G30" s="16">
+      <c r="I30" s="15">
         <v>0.61203799999999997</v>
       </c>
-      <c r="H30" s="16">
+      <c r="J30" s="15">
         <v>0.74705270822564263</v>
       </c>
-      <c r="I30" s="16">
+      <c r="K30" s="15">
         <v>0.64047299999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="15">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="14">
         <v>0.7</v>
       </c>
-      <c r="B31" s="16">
+      <c r="B31" s="14"/>
+      <c r="C31" s="15">
         <v>0.74961613266455118</v>
       </c>
-      <c r="C31" s="16">
+      <c r="D31" s="15">
         <v>0.31958199999999998</v>
       </c>
-      <c r="D31" s="16">
+      <c r="E31" s="15"/>
+      <c r="F31" s="15">
         <v>0.70772940744933188</v>
       </c>
-      <c r="E31" s="16">
+      <c r="G31" s="15">
         <v>0.69603499999999996</v>
       </c>
-      <c r="F31" s="16">
+      <c r="H31" s="15">
         <v>0.74961613266455118</v>
       </c>
-      <c r="G31" s="16">
+      <c r="I31" s="15">
         <v>0.31958199999999998</v>
       </c>
-      <c r="H31" s="16">
+      <c r="J31" s="15">
         <v>0.71571575033308343</v>
       </c>
-      <c r="I31" s="16">
+      <c r="K31" s="15">
         <v>0.26821</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="C26:D26"/>
     <mergeCell ref="F26:G26"/>
     <mergeCell ref="H26:I26"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A25:K25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF06522-7AD8-8F4F-B195-C56521A4F0C4}">
+  <dimension ref="A1:X34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="O51" sqref="O51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.1640625" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="6.6640625" customWidth="1"/>
+    <col min="11" max="11" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="7.83203125" customWidth="1"/>
+    <col min="15" max="15" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.1640625" customWidth="1"/>
+    <col min="17" max="17" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.33203125" customWidth="1"/>
+    <col min="19" max="19" width="5.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
+      <c r="G2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="17"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="17"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="17"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="19"/>
+      <c r="F3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A4" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="B4" s="15">
+        <v>0.81113727095915655</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0.8123656464325929</v>
+      </c>
+      <c r="D4" s="15">
+        <v>0.80663300000000004</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15">
+        <v>0.79614872458487684</v>
+      </c>
+      <c r="G4" s="15">
+        <v>0.79999722580276178</v>
+      </c>
+      <c r="H4" s="15">
+        <v>0.79114300000000004</v>
+      </c>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15">
+        <v>0.81113727095915655</v>
+      </c>
+      <c r="K4" s="15">
+        <v>0.8123656464325929</v>
+      </c>
+      <c r="L4" s="15">
+        <v>0.80663300000000004</v>
+      </c>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15">
+        <v>0.78879480622315157</v>
+      </c>
+      <c r="O4" s="15">
+        <v>0.78560311502942748</v>
+      </c>
+      <c r="P4" s="15">
+        <v>0.79250100000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A5" s="20">
+        <v>0.4</v>
+      </c>
+      <c r="B5" s="15">
+        <v>0.81113727095915655</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0.78104207185996521</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0.56658799999999998</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15">
+        <v>0.79614872458487684</v>
+      </c>
+      <c r="G5" s="15">
+        <v>0.76835668036487392</v>
+      </c>
+      <c r="H5" s="15">
+        <v>0.75494899999999998</v>
+      </c>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15">
+        <v>0.81113727095915655</v>
+      </c>
+      <c r="K5" s="15">
+        <v>0.78104207185996521</v>
+      </c>
+      <c r="L5" s="15">
+        <v>0.56658799999999998</v>
+      </c>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15">
+        <v>0.78879480622315157</v>
+      </c>
+      <c r="O5" s="15">
+        <v>0.71767430595285797</v>
+      </c>
+      <c r="P5" s="15">
+        <v>0.59484599999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A6" s="20">
+        <v>0.7</v>
+      </c>
+      <c r="B6" s="15">
+        <v>0.81113727095915655</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0.76292353362677856</v>
+      </c>
+      <c r="D6" s="15">
+        <v>0.26164399999999999</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15">
+        <v>0.79614872458487684</v>
+      </c>
+      <c r="G6" s="15">
+        <v>0.77960770467541596</v>
+      </c>
+      <c r="H6" s="15">
+        <v>0.721854</v>
+      </c>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15">
+        <v>0.81113727095915655</v>
+      </c>
+      <c r="K6" s="15">
+        <v>0.76292353362677856</v>
+      </c>
+      <c r="L6" s="15">
+        <v>0.26164399999999999</v>
+      </c>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15">
+        <v>0.78879480622315157</v>
+      </c>
+      <c r="O6" s="15">
+        <v>0.661535050357556</v>
+      </c>
+      <c r="P6" s="15">
+        <v>0.14568900000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="P7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="P8" s="5"/>
+      <c r="R8" s="5"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="R9" s="5"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="R10" s="5"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="17"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H25" s="17"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="L25" s="17"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="P25" s="17"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="O26" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="P26" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="B27" s="15">
+        <v>0.80745214453884695</v>
+      </c>
+      <c r="C27" s="15">
+        <v>0.78513665677141975</v>
+      </c>
+      <c r="D27" s="15">
+        <v>0.78431799999999996</v>
+      </c>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15">
+        <v>0.79710863181796932</v>
+      </c>
+      <c r="G27" s="15">
+        <v>0.76757293224924961</v>
+      </c>
+      <c r="H27" s="15">
+        <v>0.78302099999999997</v>
+      </c>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15">
+        <v>0.80745214453884739</v>
+      </c>
+      <c r="K27" s="15">
+        <v>0.78513665677141975</v>
+      </c>
+      <c r="L27" s="15">
+        <v>0.78431799999999996</v>
+      </c>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15">
+        <v>0.80039686949754418</v>
+      </c>
+      <c r="O27" s="15">
+        <v>0.77208995728365548</v>
+      </c>
+      <c r="P27" s="15">
+        <v>0.78365399999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="20">
+        <v>0.4</v>
+      </c>
+      <c r="B28" s="15">
+        <v>0.80745214453884695</v>
+      </c>
+      <c r="C28" s="15">
+        <v>0.77459310062442421</v>
+      </c>
+      <c r="D28" s="15">
+        <v>0.61203799999999997</v>
+      </c>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15">
+        <v>0.79710863181796932</v>
+      </c>
+      <c r="G28" s="15">
+        <v>0.74548450426465152</v>
+      </c>
+      <c r="H28" s="15">
+        <v>0.75553599999999999</v>
+      </c>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15">
+        <v>0.80745214453884739</v>
+      </c>
+      <c r="K28" s="15">
+        <v>0.77459310062442421</v>
+      </c>
+      <c r="L28" s="15">
+        <v>0.61203799999999997</v>
+      </c>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15">
+        <v>0.80039686949754418</v>
+      </c>
+      <c r="O28" s="15">
+        <v>0.74705270822564263</v>
+      </c>
+      <c r="P28" s="15">
+        <v>0.64047299999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" s="20">
+        <v>0.7</v>
+      </c>
+      <c r="B29" s="15">
+        <v>0.80745214453884695</v>
+      </c>
+      <c r="C29" s="15">
+        <v>0.74961613266455118</v>
+      </c>
+      <c r="D29" s="15">
+        <v>0.31958199999999998</v>
+      </c>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15">
+        <v>0.79710863181796932</v>
+      </c>
+      <c r="G29" s="15">
+        <v>0.70772940744933188</v>
+      </c>
+      <c r="H29" s="15">
+        <v>0.69603499999999996</v>
+      </c>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15">
+        <v>0.80745214453884739</v>
+      </c>
+      <c r="K29" s="15">
+        <v>0.74961613266455118</v>
+      </c>
+      <c r="L29" s="15">
+        <v>0.31958199999999998</v>
+      </c>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15">
+        <v>0.80039686949754418</v>
+      </c>
+      <c r="O29" s="15">
+        <v>0.71571575033308343</v>
+      </c>
+      <c r="P29" s="15">
+        <v>0.26821</v>
+      </c>
+    </row>
+    <row r="34" spans="15:15" ht="19" x14ac:dyDescent="0.2">
+      <c r="O34" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="A24:P24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/MEng_TaskB/Adult/classification_model_results.xlsx
+++ b/MEng_TaskB/Adult/classification_model_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isabel/SUN/03_DataScience/00_PostBlock/PBA3_19May/ds-group-42-pba-3/MEng_TaskB/Adult/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2D02CE-5D42-9446-BF52-F8CB55034D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BFEF04-9B85-6145-B571-505198E4BCC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="k-NN" sheetId="1" r:id="rId1"/>
@@ -22,15 +22,6 @@
     <sheet name="NewResults_Graphs" sheetId="10" r:id="rId7"/>
     <sheet name="NewResults_End)" sheetId="11" r:id="rId8"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'NewResults_End)'!$A$27:$A$29</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'NewResults_End)'!$B$26</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'NewResults_End)'!$B$27:$B$29</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'NewResults_End)'!$C$26</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'NewResults_End)'!$C$27:$C$29</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'NewResults_End)'!$D$26</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'NewResults_End)'!$D$27:$D$29</definedName>
-  </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -49,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="30">
   <si>
     <t>dataset_name</t>
   </si>
@@ -121,6 +112,24 @@
   </si>
   <si>
     <t>Control</t>
+  </si>
+  <si>
+    <t>Control(Accuracy)</t>
+  </si>
+  <si>
+    <t>Mean(Accuracy)</t>
+  </si>
+  <si>
+    <t>k-NN(Accuracy)</t>
+  </si>
+  <si>
+    <t>Control(F1)</t>
+  </si>
+  <si>
+    <t>Mean(F1)</t>
+  </si>
+  <si>
+    <t>k-NN(F1)</t>
   </si>
 </sst>
 </file>
@@ -230,7 +239,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -258,16 +267,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4735,7 +4743,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Control</c:v>
+                  <c:v>Control(Accuracy)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4801,7 +4809,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Mean</c:v>
+                  <c:v>Mean(Accuracy)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4867,7 +4875,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>k-NN</c:v>
+                  <c:v>k-NN(Accuracy)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5759,7 +5767,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Control</c:v>
+                  <c:v>Control(Accuracy)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5825,7 +5833,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Mean</c:v>
+                  <c:v>Mean(Accuracy)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5891,7 +5899,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>k-NN</c:v>
+                  <c:v>k-NN(Accuracy)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6350,7 +6358,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Control</c:v>
+                  <c:v>Control(F1)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6416,7 +6424,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Mean</c:v>
+                  <c:v>Mean(F1)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6482,7 +6490,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>k-NN</c:v>
+                  <c:v>k-NN(F1)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6703,7 +6711,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> Accuracy</a:t>
+                  <a:t> F1</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-GB"/>
               </a:p>
@@ -6941,7 +6949,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Control</c:v>
+                  <c:v>Control(F1)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7007,7 +7015,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Mean</c:v>
+                  <c:v>Mean(F1)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7073,7 +7081,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>k-NN</c:v>
+                  <c:v>k-NN(F1)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7294,7 +7302,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> Accuracy</a:t>
+                  <a:t> F1</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-GB"/>
               </a:p>
@@ -7429,6 +7437,1411 @@
     </a:ln>
     <a:effectLst/>
   </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Classification Tree: Performance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'NewResults_End)'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Control(Accuracy)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'NewResults_End)'!$A$4:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'NewResults_End)'!$B$4:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.81113727095915655</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.81113727095915655</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81113727095915655</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-6F6E-5449-AFCC-88C437AA697E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'NewResults_End)'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mean(Accuracy)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'NewResults_End)'!$A$4:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'NewResults_End)'!$C$4:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.8123656464325929</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78104207185996521</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76292353362677856</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-6F6E-5449-AFCC-88C437AA697E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'NewResults_End)'!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>k-NN(Accuracy)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'NewResults_End)'!$A$4:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'NewResults_End)'!$D$4:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.80663300000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56658799999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26164399999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-6F6E-5449-AFCC-88C437AA697E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'NewResults_End)'!$N$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Control(F1)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'NewResults_End)'!$A$4:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'NewResults_End)'!$N$4:$N$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.78879480622315157</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78879480622315157</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78879480622315157</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6F6E-5449-AFCC-88C437AA697E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'NewResults_End)'!$O$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mean(F1)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'NewResults_End)'!$A$4:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'NewResults_End)'!$O$4:$O$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.78560311502942748</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71767430595285797</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.661535050357556</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-6F6E-5449-AFCC-88C437AA697E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'NewResults_End)'!$P$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>k-NN(F1)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'NewResults_End)'!$A$4:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'NewResults_End)'!$P$4:$P$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.79250100000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.59484599999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14568900000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-6F6E-5449-AFCC-88C437AA697E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="397713664"/>
+        <c:axId val="397715392"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="397713664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Proportion of Missing Values Imputed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="397715392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="397715392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Performance metric score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="397713664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>k-Nerest Neighbour Performance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'NewResults_End)'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Control(Accuracy)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'NewResults_End)'!$A$27:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'NewResults_End)'!$B$27:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.80745214453884695</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80745214453884695</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80745214453884695</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-AB5A-AD40-BE72-FB4A83BC126D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'NewResults_End)'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mean(Accuracy)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'NewResults_End)'!$A$27:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'NewResults_End)'!$C$27:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.78513665677141975</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77459310062442421</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74961613266455118</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-AB5A-AD40-BE72-FB4A83BC126D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'NewResults_End)'!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>k-NN(Accuracy)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'NewResults_End)'!$A$27:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'NewResults_End)'!$D$27:$D$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.78431799999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61203799999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31958199999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-AB5A-AD40-BE72-FB4A83BC126D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'NewResults_End)'!$N$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Control(F1)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'NewResults_End)'!$A$27:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'NewResults_End)'!$N$27:$N$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.80039686949754418</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80039686949754418</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80039686949754418</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-AB5A-AD40-BE72-FB4A83BC126D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'NewResults_End)'!$O$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mean(F1)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'NewResults_End)'!$A$27:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'NewResults_End)'!$O$27:$O$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.77208995728365548</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.74705270822564263</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71571575033308343</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-AB5A-AD40-BE72-FB4A83BC126D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'NewResults_End)'!$P$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>k-NN(F1)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'NewResults_End)'!$A$27:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'NewResults_End)'!$P$27:$P$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.78365399999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.64047299999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26821</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-AB5A-AD40-BE72-FB4A83BC126D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="397713664"/>
+        <c:axId val="397715392"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="397713664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Proportion of Missing Values Imputed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="397715392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="397715392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Performance metric score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="397713664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -23413,10 +24826,10 @@
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28222</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23451,8 +24864,8 @@
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>197556</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
@@ -23483,16 +24896,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>155222</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23521,15 +24934,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>536224</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>197555</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>536224</xdr:colOff>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -23557,13 +24970,89 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>691445</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>520701</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A14DE6F8-1AA0-B042-BB66-BE6FF4490FA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>155222</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>98777</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43732A10-93FC-8E4E-A4B4-CDB46C410031}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Blue Warm">
+    <a:clrScheme name="Blue">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -23571,34 +25060,34 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="242852"/>
+        <a:srgbClr val="17406D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="ACCBF9"/>
+        <a:srgbClr val="DBEFF9"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4A66AC"/>
+        <a:srgbClr val="0F6FC6"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="629DD1"/>
+        <a:srgbClr val="009DD9"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="297FD5"/>
+        <a:srgbClr val="0BD0D9"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="7F8FA9"/>
+        <a:srgbClr val="10CF9B"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5AA2AE"/>
+        <a:srgbClr val="7CCA62"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="9D90A0"/>
+        <a:srgbClr val="A5C249"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="9454C3"/>
+        <a:srgbClr val="F49100"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="3EBBF0"/>
+        <a:srgbClr val="85DFD0"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -25080,35 +26569,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16" t="s">
+      <c r="E2" s="19"/>
+      <c r="F2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16" t="s">
+      <c r="G2" s="19"/>
+      <c r="H2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="16"/>
+      <c r="I2" s="19"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
@@ -25277,35 +26766,35 @@
       <c r="K11" s="5"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16" t="s">
+      <c r="C26" s="19"/>
+      <c r="D26" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16" t="s">
+      <c r="E26" s="19"/>
+      <c r="F26" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16" t="s">
+      <c r="G26" s="19"/>
+      <c r="H26" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I26" s="16"/>
+      <c r="I26" s="19"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
@@ -25451,16 +26940,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A25:I25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -25681,7 +27170,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:I12"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -25912,40 +27401,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="14"/>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="17"/>
+      <c r="D2" s="20"/>
       <c r="E2" s="13"/>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17" t="s">
+      <c r="G2" s="20"/>
+      <c r="H2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17" t="s">
+      <c r="I2" s="20"/>
+      <c r="J2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="17"/>
+      <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="14"/>
@@ -26124,40 +27613,40 @@
       <c r="M11" s="5"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="17"/>
+      <c r="D26" s="20"/>
       <c r="E26" s="13"/>
-      <c r="F26" s="17" t="s">
+      <c r="F26" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17" t="s">
+      <c r="G26" s="20"/>
+      <c r="H26" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17" t="s">
+      <c r="I26" s="20"/>
+      <c r="J26" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="K26" s="17"/>
+      <c r="K26" s="20"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
@@ -26334,8 +27823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF06522-7AD8-8F4F-B195-C56521A4F0C4}">
   <dimension ref="A1:X34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="O51" sqref="O51"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AB38" sqref="AB38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -26357,62 +27846,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="14"/>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18"/>
-      <c r="G2" s="17" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="16"/>
+      <c r="G2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="17"/>
+      <c r="H2" s="20"/>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="17"/>
+      <c r="L2" s="20"/>
       <c r="M2" s="13"/>
       <c r="N2" s="13"/>
-      <c r="O2" s="17" t="s">
+      <c r="O2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="17"/>
+      <c r="P2" s="20"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="14"/>
       <c r="B3" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="19"/>
+        <v>26</v>
+      </c>
       <c r="F3" s="14" t="s">
         <v>23</v>
       </c>
@@ -26434,17 +27922,17 @@
       </c>
       <c r="M3" s="14"/>
       <c r="N3" s="14" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="P3" s="14" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A4" s="20">
+      <c r="A4" s="17">
         <v>0.1</v>
       </c>
       <c r="B4" s="15">
@@ -26488,7 +27976,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A5" s="20">
+      <c r="A5" s="17">
         <v>0.4</v>
       </c>
       <c r="B5" s="15">
@@ -26532,7 +28020,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A6" s="20">
+      <c r="A6" s="17">
         <v>0.7</v>
       </c>
       <c r="B6" s="15">
@@ -26598,63 +28086,62 @@
       <c r="R10" s="5"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="17"/>
+      <c r="D25" s="20"/>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="17" t="s">
+      <c r="G25" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H25" s="17"/>
+      <c r="H25" s="20"/>
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
-      <c r="K25" s="17" t="s">
+      <c r="K25" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="L25" s="17"/>
+      <c r="L25" s="20"/>
       <c r="M25" s="13"/>
       <c r="N25" s="13"/>
-      <c r="O25" s="17" t="s">
+      <c r="O25" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="P25" s="17"/>
+      <c r="P25" s="20"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
       <c r="B26" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" s="14"/>
+        <v>26</v>
+      </c>
       <c r="F26" s="14" t="s">
         <v>23</v>
       </c>
@@ -26676,17 +28163,17 @@
       </c>
       <c r="M26" s="14"/>
       <c r="N26" s="14" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="O26" s="14" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="P26" s="14" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="20">
+      <c r="A27" s="17">
         <v>0.1</v>
       </c>
       <c r="B27" s="15">
@@ -26730,7 +28217,7 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="20">
+      <c r="A28" s="17">
         <v>0.4</v>
       </c>
       <c r="B28" s="15">
@@ -26774,7 +28261,7 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="20">
+      <c r="A29" s="17">
         <v>0.7</v>
       </c>
       <c r="B29" s="15">
@@ -26818,7 +28305,7 @@
       </c>
     </row>
     <row r="34" spans="15:15" ht="19" x14ac:dyDescent="0.2">
-      <c r="O34" s="21"/>
+      <c r="O34" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="10">
